--- a/2021/ЛБ1_смешение/исходные данные.xlsx
+++ b/2021/ЛБ1_смешение/исходные данные.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chuva\Documents\GitHub\SA\2021\ЛБ1_смешение\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABEC0D6-B268-473E-B1AD-FEA5C7B16471}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB206CE3-FAC6-4A4A-8A48-F90F0D341F88}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9180" xr2:uid="{B389EC48-C7DE-46B5-AEE6-12983FFE5B9A}"/>
   </bookViews>
@@ -648,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E83DFB-C276-4FC5-9ACC-3A205FD3A148}">
-  <dimension ref="A1:I157"/>
+  <dimension ref="A1:I146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A71" sqref="A71:XFD81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2542,18 +2542,18 @@
         <v>0.14219999999999999</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A157">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146">
         <v>0</v>
       </c>
     </row>

--- a/2021/ЛБ1_смешение/исходные данные.xlsx
+++ b/2021/ЛБ1_смешение/исходные данные.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chuva\Documents\GitHub\SA\2021\ЛБ1_смешение\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB206CE3-FAC6-4A4A-8A48-F90F0D341F88}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A755F1B5-B75C-4421-A08D-1C1C30B2FACB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9180" xr2:uid="{B389EC48-C7DE-46B5-AEE6-12983FFE5B9A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>2,3,5-ТМГ</t>
   </si>
@@ -241,6 +241,9 @@
   </si>
   <si>
     <t>Поток 6</t>
+  </si>
+  <si>
+    <t>Компонент</t>
   </si>
 </sst>
 </file>
@@ -651,16 +654,19 @@
   <dimension ref="A1:I146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71:XFD81"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>72</v>
+      </c>
       <c r="B1" s="6" t="s">
         <v>64</v>
       </c>
@@ -686,7 +692,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -715,7 +721,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -744,7 +750,7 @@
         <v>5.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -773,7 +779,7 @@
         <v>1.38E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -802,7 +808,7 @@
         <v>1.77E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -831,7 +837,7 @@
         <v>2.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -860,7 +866,7 @@
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -889,7 +895,7 @@
         <v>2.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -918,7 +924,7 @@
         <v>1.4E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -947,7 +953,7 @@
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -976,7 +982,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1005,7 +1011,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1034,7 +1040,7 @@
         <v>3.9800000000000002E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1063,7 +1069,7 @@
         <v>1.66E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1092,7 +1098,7 @@
         <v>1.29E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1121,7 +1127,7 @@
         <v>3.3E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1150,7 +1156,7 @@
         <v>1.04E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1179,7 +1185,7 @@
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -1208,7 +1214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -1237,7 +1243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -1266,7 +1272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -1295,7 +1301,7 @@
         <v>2.7799999999999998E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -1324,7 +1330,7 @@
         <v>3.4599999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -1353,7 +1359,7 @@
         <v>1.1999999999999999E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -1382,7 +1388,7 @@
         <v>1.1999999999999999E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -1411,7 +1417,7 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -1440,7 +1446,7 @@
         <v>6.9999999999999999E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -1469,7 +1475,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -1498,7 +1504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -1527,7 +1533,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
@@ -1556,7 +1562,7 @@
         <v>4.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
@@ -1585,7 +1591,7 @@
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
@@ -1614,7 +1620,7 @@
         <v>7.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
@@ -1643,7 +1649,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
@@ -1672,7 +1678,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
@@ -1701,7 +1707,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
@@ -1730,7 +1736,7 @@
         <v>1.9E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
@@ -1759,7 +1765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>37</v>
       </c>
@@ -1788,7 +1794,7 @@
         <v>2.3599999999999999E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>60</v>
       </c>
@@ -1817,7 +1823,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>38</v>
       </c>
@@ -1846,7 +1852,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>39</v>
       </c>
@@ -1875,7 +1881,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>40</v>
       </c>
@@ -1904,7 +1910,7 @@
         <v>8.0999999999999996E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>41</v>
       </c>
@@ -1933,7 +1939,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>42</v>
       </c>
@@ -1962,7 +1968,7 @@
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>43</v>
       </c>
@@ -1991,7 +1997,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>44</v>
       </c>
@@ -2020,7 +2026,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>45</v>
       </c>
@@ -2049,7 +2055,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>46</v>
       </c>
@@ -2078,7 +2084,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>47</v>
       </c>
@@ -2107,7 +2113,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>48</v>
       </c>
@@ -2136,7 +2142,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>49</v>
       </c>
@@ -2165,7 +2171,7 @@
         <v>1.4E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>50</v>
       </c>
@@ -2194,7 +2200,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>51</v>
       </c>
@@ -2223,7 +2229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>52</v>
       </c>
@@ -2252,7 +2258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>61</v>
       </c>
@@ -2281,7 +2287,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>62</v>
       </c>
@@ -2310,7 +2316,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>53</v>
       </c>
@@ -2339,7 +2345,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>54</v>
       </c>
@@ -2368,7 +2374,7 @@
         <v>0.183</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>55</v>
       </c>
@@ -2397,7 +2403,7 @@
         <v>2.3800000000000002E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>56</v>
       </c>
@@ -2426,7 +2432,7 @@
         <v>5.6800000000000003E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>57</v>
       </c>
@@ -2455,7 +2461,7 @@
         <v>2.4500000000000001E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>58</v>
       </c>
@@ -2484,7 +2490,7 @@
         <v>2.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
@@ -2513,7 +2519,7 @@
         <v>0.20960000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>59</v>
       </c>
@@ -2542,17 +2548,17 @@
         <v>0.14219999999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>0</v>
       </c>
